--- a/work_sum.xlsx
+++ b/work_sum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="289">
   <si>
     <t>班级</t>
   </si>
@@ -313,10 +313,7 @@
     <t>qian</t>
   </si>
   <si>
-    <t>YiBo</t>
-  </si>
-  <si>
-    <t>zm</t>
+    <t>石津铭</t>
   </si>
   <si>
     <t>13751555319</t>
@@ -535,9 +532,6 @@
     <t>内鬼</t>
   </si>
   <si>
-    <t>石津铭</t>
-  </si>
-  <si>
     <t>金芸慧</t>
   </si>
   <si>
@@ -682,6 +676,9 @@
     <t>华海洋</t>
   </si>
   <si>
+    <t>温宗雯</t>
+  </si>
+  <si>
     <t>13433535989</t>
   </si>
   <si>
@@ -868,16 +865,22 @@
     <t>2019-09-29 14:39:22</t>
   </si>
   <si>
-    <t>1/3</t>
+    <t>2/4</t>
   </si>
   <si>
     <t>0/3</t>
   </si>
   <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>2/3</t>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
 </sst>
 </file>
@@ -1542,43 +1545,43 @@
         <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>492771695</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L2" t="s">
         <v>287</v>
       </c>
       <c r="M2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="O2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="P2">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1689,7 +1692,7 @@
         <v>1000</v>
       </c>
       <c r="BB2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC2">
         <v>1000</v>
@@ -1776,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:95">
@@ -1793,31 +1796,31 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>652993141</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2044,28 +2047,28 @@
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>762587109</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
         <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M4" t="s">
         <v>285</v>
@@ -2080,7 +2083,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="CQ4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:95">
@@ -2295,22 +2298,22 @@
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>809842016</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K5" t="s">
         <v>286</v>
@@ -2322,19 +2325,19 @@
         <v>286</v>
       </c>
       <c r="N5">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="O5">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S5">
         <v>76</v>
@@ -2346,7 +2349,7 @@
         <v>114</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2442,7 +2445,7 @@
         <v>75</v>
       </c>
       <c r="BB5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC5">
         <v>1000</v>
@@ -2529,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:95">
@@ -2546,28 +2549,28 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>945669561</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K6" t="s">
         <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M6" t="s">
         <v>285</v>
@@ -2780,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="CQ6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:95">
@@ -2797,31 +2800,31 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>1411386023</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N7">
         <v>378</v>
@@ -2833,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R7">
         <v>67</v>
@@ -3031,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="CQ7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:95">
@@ -3048,37 +3051,37 @@
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>1533729845</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N8">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="P8">
         <v>56</v>
@@ -3099,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC8">
         <v>1000</v>
@@ -3282,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="CQ8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -3299,22 +3302,22 @@
         <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>1713019685</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" t="s">
         <v>286</v>
@@ -3326,16 +3329,16 @@
         <v>286</v>
       </c>
       <c r="N9">
-        <v>367</v>
+        <v>474</v>
       </c>
       <c r="O9">
-        <v>367</v>
+        <v>474</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R9">
         <v>67</v>
@@ -3350,7 +3353,7 @@
         <v>112</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -3446,7 +3449,7 @@
         <v>2000</v>
       </c>
       <c r="BB9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC9">
         <v>1000</v>
@@ -3533,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="CQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:95">
@@ -3550,25 +3553,25 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>1779511628</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L10" t="s">
         <v>287</v>
@@ -3577,16 +3580,16 @@
         <v>287</v>
       </c>
       <c r="N10">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="O10">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R10">
         <v>67</v>
@@ -3601,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -3697,7 +3700,7 @@
         <v>1000</v>
       </c>
       <c r="BB10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC10">
         <v>1000</v>
@@ -3784,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="CQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:95">
@@ -3801,43 +3804,43 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>2095936491</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L11" t="s">
         <v>287</v>
       </c>
       <c r="M11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N11">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="O11">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3852,7 +3855,7 @@
         <v>130</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -3945,10 +3948,10 @@
         <v>1000</v>
       </c>
       <c r="BA11">
+        <v>100</v>
+      </c>
+      <c r="BB11">
         <v>2000</v>
-      </c>
-      <c r="BB11">
-        <v>1000</v>
       </c>
       <c r="BC11">
         <v>1000</v>
@@ -4052,22 +4055,22 @@
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12">
         <v>2293045497</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K12" t="s">
         <v>285</v>
@@ -4286,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="CQ12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:95">
@@ -4303,31 +4306,31 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13">
         <v>2625118263</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -4339,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4551,25 +4554,25 @@
         <v>2801935472</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14">
         <v>2801935472</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
         <v>286</v>
@@ -4581,16 +4584,16 @@
         <v>286</v>
       </c>
       <c r="N14">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="O14">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="P14">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="Q14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R14">
         <v>100</v>
@@ -4605,7 +4608,7 @@
         <v>130</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -4647,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="AJ14">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -4701,7 +4704,7 @@
         <v>100</v>
       </c>
       <c r="BB14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC14">
         <v>1000</v>
@@ -4788,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="CQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:95">
@@ -4805,22 +4808,22 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>2903027429</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K15" t="s">
         <v>285</v>
@@ -5039,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="CQ15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:95">
@@ -5056,46 +5059,46 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>2960277544</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L16" t="s">
         <v>286</v>
       </c>
       <c r="M16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N16">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="O16">
         <v>375</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Q16" t="s">
         <v>286</v>
       </c>
       <c r="R16">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S16">
         <v>130</v>
@@ -5155,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -5203,7 +5206,7 @@
         <v>75</v>
       </c>
       <c r="BB16">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BC16">
         <v>1000</v>
@@ -5307,31 +5310,31 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>3014234956</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -5343,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5558,31 +5561,31 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>1.441152098801307e+17</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N18">
         <v>390</v>
@@ -5594,7 +5597,7 @@
         <v>196</v>
       </c>
       <c r="Q18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R18">
         <v>48</v>
@@ -5792,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="CQ18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:95">
@@ -5809,31 +5812,31 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>1.441152112342919e+17</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K19" t="s">
+        <v>283</v>
+      </c>
+      <c r="L19" t="s">
         <v>287</v>
       </c>
-      <c r="L19" t="s">
-        <v>286</v>
-      </c>
       <c r="M19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N19">
         <v>231</v>
@@ -5845,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R19">
         <v>33</v>
@@ -6043,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="CQ19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:95">
@@ -6060,22 +6063,22 @@
         <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>1.441152116387397e+17</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
         <v>286</v>
@@ -6087,16 +6090,16 @@
         <v>286</v>
       </c>
       <c r="N20">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="O20">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R20">
         <v>20</v>
@@ -6111,7 +6114,7 @@
         <v>115</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -6207,7 +6210,7 @@
         <v>2000</v>
       </c>
       <c r="BB20">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC20">
         <v>1000</v>
@@ -6294,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="CQ20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:95">
@@ -6311,22 +6314,22 @@
         <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>1.441152121222182e+17</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K21" t="s">
         <v>286</v>
@@ -6338,16 +6341,16 @@
         <v>286</v>
       </c>
       <c r="N21">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="O21">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="P21">
         <v>125</v>
       </c>
       <c r="Q21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R21">
         <v>68</v>
@@ -6362,7 +6365,7 @@
         <v>130</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -6458,7 +6461,7 @@
         <v>70</v>
       </c>
       <c r="BB21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC21">
         <v>1000</v>
@@ -6545,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="CQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:95">
@@ -6562,31 +6565,31 @@
         <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>1.441152129781689e+17</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N22">
         <v>113</v>
@@ -6796,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="CQ22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:95">
@@ -6813,31 +6816,31 @@
         <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>1.441152132220186e+17</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N23">
         <v>349</v>
@@ -6849,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R23">
         <v>100</v>
@@ -7047,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="CQ23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:95">
@@ -7064,22 +7067,22 @@
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24">
         <v>1.441152135866536e+17</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
         <v>287</v>
@@ -7091,10 +7094,10 @@
         <v>287</v>
       </c>
       <c r="N24">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="O24">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -7115,7 +7118,7 @@
         <v>130</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -7211,7 +7214,7 @@
         <v>2000</v>
       </c>
       <c r="BB24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC24">
         <v>1000</v>
@@ -7298,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="CQ24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:95">
@@ -7315,43 +7318,43 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <v>1.441152136007435e+17</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s">
         <v>287</v>
       </c>
       <c r="M25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N25">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="O25">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="P25">
         <v>7</v>
       </c>
       <c r="Q25" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R25">
         <v>53</v>
@@ -7366,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -7462,7 +7465,7 @@
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC25">
         <v>1000</v>
@@ -7549,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="CQ25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:95">
@@ -7566,22 +7569,22 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>1.441152136127301e+17</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
         <v>286</v>
@@ -7593,19 +7596,19 @@
         <v>286</v>
       </c>
       <c r="N26">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="O26">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R26">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S26">
         <v>126</v>
@@ -7617,7 +7620,7 @@
         <v>130</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -7713,7 +7716,7 @@
         <v>75</v>
       </c>
       <c r="BB26">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC26">
         <v>1000</v>
@@ -7800,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="CQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:95">
@@ -7817,43 +7820,43 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>1.441152136316587e+17</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="O27">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Q27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -7868,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -7916,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -7964,7 +7967,7 @@
         <v>1000</v>
       </c>
       <c r="BB27">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC27">
         <v>1000</v>
@@ -8068,22 +8071,22 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>1.441152136353316e+17</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
         <v>287</v>
@@ -8095,16 +8098,16 @@
         <v>287</v>
       </c>
       <c r="N28">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="O28">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R28">
         <v>67</v>
@@ -8119,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -8215,7 +8218,7 @@
         <v>1000</v>
       </c>
       <c r="BB28">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC28">
         <v>1000</v>
@@ -8302,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="CQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:95">
@@ -8319,22 +8322,22 @@
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <v>1.441152136354183e+17</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
         <v>286</v>
@@ -8346,16 +8349,16 @@
         <v>286</v>
       </c>
       <c r="N29">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="O29">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="P29">
         <v>6</v>
       </c>
       <c r="Q29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R29">
         <v>37</v>
@@ -8370,7 +8373,7 @@
         <v>126</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -8466,7 +8469,7 @@
         <v>75</v>
       </c>
       <c r="BB29">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC29">
         <v>1000</v>
@@ -8553,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="CQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:95">
@@ -8570,22 +8573,22 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>1.441152136471064e+17</v>
       </c>
       <c r="G30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
         <v>285</v>
@@ -8804,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="CQ30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:95">
@@ -8821,22 +8824,22 @@
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31">
         <v>1.441152137384308e+17</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
         <v>286</v>
@@ -8848,16 +8851,16 @@
         <v>286</v>
       </c>
       <c r="N31">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="O31">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R31">
         <v>50</v>
@@ -8872,7 +8875,7 @@
         <v>120</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -8911,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -8968,7 +8971,7 @@
         <v>2000</v>
       </c>
       <c r="BB31">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC31">
         <v>1000</v>
@@ -9055,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="CQ31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:95">
@@ -9072,22 +9075,22 @@
         <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>1.44115213739458e+17</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
         <v>286</v>
@@ -9099,16 +9102,16 @@
         <v>286</v>
       </c>
       <c r="N32">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="O32">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="P32">
         <v>14</v>
       </c>
       <c r="Q32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R32">
         <v>100</v>
@@ -9123,7 +9126,7 @@
         <v>130</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -9219,7 +9222,7 @@
         <v>100</v>
       </c>
       <c r="BB32">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC32">
         <v>1000</v>
@@ -9306,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="CQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:95">
@@ -9323,22 +9326,22 @@
         <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33">
         <v>1.441152137596856e+17</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
         <v>287</v>
@@ -9350,16 +9353,16 @@
         <v>285</v>
       </c>
       <c r="N33">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -9419,7 +9422,7 @@
         <v>130</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -9467,7 +9470,7 @@
         <v>2000</v>
       </c>
       <c r="BA33">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BB33">
         <v>1000</v>
@@ -9557,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="CQ33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:95">
@@ -9574,22 +9577,22 @@
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34">
         <v>1.441152137749498e+17</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
         <v>285</v>
@@ -9808,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="CQ34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:95">
@@ -9825,31 +9828,31 @@
         <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35">
         <v>1.441152137810353e+17</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35">
         <v>357</v>
@@ -10059,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="CQ35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:95">
@@ -10076,22 +10079,22 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>1.441152137883147e+17</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K36" t="s">
         <v>286</v>
@@ -10103,16 +10106,16 @@
         <v>286</v>
       </c>
       <c r="N36">
-        <v>381</v>
+        <v>505</v>
       </c>
       <c r="O36">
-        <v>381</v>
+        <v>505</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R36">
         <v>67</v>
@@ -10127,7 +10130,7 @@
         <v>117</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -10223,7 +10226,7 @@
         <v>2000</v>
       </c>
       <c r="BB36">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC36">
         <v>1000</v>
@@ -10310,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="CQ36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:95">
@@ -10327,22 +10330,22 @@
         <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37">
         <v>1.441152137900484e+17</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s">
         <v>287</v>
@@ -10351,13 +10354,13 @@
         <v>287</v>
       </c>
       <c r="M37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N37">
+        <v>386</v>
+      </c>
+      <c r="O37">
         <v>256</v>
-      </c>
-      <c r="O37">
-        <v>126</v>
       </c>
       <c r="P37">
         <v>130</v>
@@ -10378,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -10474,7 +10477,7 @@
         <v>1000</v>
       </c>
       <c r="BB37">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC37">
         <v>1000</v>
@@ -10561,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="CQ37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:95">
@@ -10578,22 +10581,22 @@
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>1.441152137953956e+17</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38" t="s">
         <v>285</v>
@@ -10812,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="CQ38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:95">
@@ -10829,22 +10832,22 @@
         <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>1.441152138136465e+17</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s">
         <v>287</v>
@@ -10856,10 +10859,10 @@
         <v>287</v>
       </c>
       <c r="N39">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="O39">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -10880,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -10976,7 +10979,7 @@
         <v>1000</v>
       </c>
       <c r="BB39">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC39">
         <v>1000</v>
@@ -11063,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="CQ39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:95">
@@ -11080,22 +11083,22 @@
         <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40">
         <v>1.441152138180856e+17</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
         <v>286</v>
@@ -11104,22 +11107,22 @@
         <v>286</v>
       </c>
       <c r="M40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N40">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="O40">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="P40">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q40" t="s">
         <v>286</v>
       </c>
       <c r="R40">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -11131,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -11179,7 +11182,7 @@
         <v>130</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -11227,7 +11230,7 @@
         <v>100</v>
       </c>
       <c r="BB40">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BC40">
         <v>1000</v>
@@ -11331,22 +11334,22 @@
         <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41">
         <v>1.441152138205188e+17</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K41" t="s">
         <v>285</v>
@@ -11565,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="CQ41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:95">
@@ -11582,31 +11585,31 @@
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42">
         <v>1.441152138243933e+17</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N42">
         <v>390</v>
@@ -11618,7 +11621,7 @@
         <v>130</v>
       </c>
       <c r="Q42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R42">
         <v>50</v>
@@ -11816,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="CQ42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:95">
@@ -11833,28 +11836,28 @@
         <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>1.441152138261664e+17</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K43" t="s">
         <v>285</v>
       </c>
       <c r="L43" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s">
         <v>285</v>
@@ -12067,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="CQ43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:95">
@@ -12084,31 +12087,31 @@
         <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44">
         <v>1.441152138317833e+17</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K44" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" t="s">
         <v>287</v>
       </c>
-      <c r="L44" t="s">
-        <v>286</v>
-      </c>
       <c r="M44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N44">
         <v>197</v>
@@ -12120,7 +12123,7 @@
         <v>114</v>
       </c>
       <c r="Q44" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R44">
         <v>100</v>
@@ -12318,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="CQ44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:95">
@@ -12335,31 +12338,31 @@
         <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45">
         <v>1.441152138558517e+17</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N45">
         <v>292</v>
@@ -12371,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -12569,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="CQ45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:95">
@@ -12586,31 +12589,31 @@
         <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46">
         <v>1.441152139121115e+17</v>
       </c>
       <c r="G46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N46">
         <v>200</v>
@@ -12622,7 +12625,7 @@
         <v>70</v>
       </c>
       <c r="Q46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R46">
         <v>83</v>
@@ -12820,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="CQ46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:95">
@@ -12834,43 +12837,43 @@
         <v>1.44115213924364e+17</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47">
         <v>1.44115213924364e+17</v>
       </c>
       <c r="G47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s">
         <v>285</v>
       </c>
       <c r="N47">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="Q47" t="s">
         <v>285</v>
@@ -12927,10 +12930,10 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -12975,10 +12978,10 @@
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AZ47">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BA47">
         <v>1000</v>
@@ -13071,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="CQ47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:95">
@@ -13088,31 +13091,31 @@
         <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48">
         <v>1.441152139270149e+17</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N48">
         <v>321</v>
@@ -13124,7 +13127,7 @@
         <v>203</v>
       </c>
       <c r="Q48" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R48">
         <v>33</v>
@@ -13322,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="CQ48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:95">
@@ -13339,40 +13342,40 @@
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49">
         <v>1.441152139479679e+17</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M49" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N49">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O49">
         <v>130</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q49" t="s">
         <v>285</v>
@@ -13573,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="CQ49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:95">
@@ -13590,22 +13593,22 @@
         <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50">
         <v>1.441152140481083e+17</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K50" t="s">
         <v>285</v>
@@ -13824,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="CQ50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:95">
@@ -13838,46 +13841,46 @@
         <v>1.441152140505577e+17</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51">
         <v>1.441152140505577e+17</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s">
         <v>286</v>
       </c>
       <c r="M51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N51">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="O51">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="P51">
         <v>5</v>
       </c>
       <c r="Q51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R51">
         <v>3</v>
@@ -13892,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -13937,7 +13940,7 @@
         <v>2</v>
       </c>
       <c r="AK51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -13985,10 +13988,10 @@
         <v>0</v>
       </c>
       <c r="BA51">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BB51">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC51">
         <v>1000</v>
@@ -14075,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="CQ51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:95">
@@ -14092,22 +14095,22 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52">
         <v>1.441152140725712e+17</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" t="s">
         <v>287</v>
@@ -14116,19 +14119,19 @@
         <v>287</v>
       </c>
       <c r="M52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N52">
+        <v>334</v>
+      </c>
+      <c r="O52">
         <v>204</v>
-      </c>
-      <c r="O52">
-        <v>74</v>
       </c>
       <c r="P52">
         <v>130</v>
       </c>
       <c r="Q52" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R52">
         <v>67</v>
@@ -14143,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -14239,7 +14242,7 @@
         <v>1000</v>
       </c>
       <c r="BB52">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC52">
         <v>1000</v>
@@ -14326,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="CQ52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:95">
@@ -14343,22 +14346,22 @@
         <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53">
         <v>1.441152140728103e+17</v>
       </c>
       <c r="G53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s">
         <v>286</v>
@@ -14370,16 +14373,16 @@
         <v>287</v>
       </c>
       <c r="N53">
-        <v>374</v>
+        <v>504</v>
       </c>
       <c r="O53">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="P53">
         <v>114</v>
       </c>
       <c r="Q53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R53">
         <v>70</v>
@@ -14394,7 +14397,7 @@
         <v>130</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -14490,7 +14493,7 @@
         <v>75</v>
       </c>
       <c r="BB53">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC53">
         <v>1000</v>
@@ -14577,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="CQ53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:95">
@@ -14594,22 +14597,22 @@
         <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54">
         <v>1.441152140732832e+17</v>
       </c>
       <c r="G54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K54" t="s">
         <v>285</v>
@@ -14630,10 +14633,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R54">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -14828,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="CQ54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:95">
@@ -14845,22 +14848,22 @@
         <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55">
         <v>1.441152140821214e+17</v>
       </c>
       <c r="G55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K55" t="s">
         <v>287</v>
@@ -14872,16 +14875,16 @@
         <v>287</v>
       </c>
       <c r="N55">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="O55">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="P55">
         <v>2</v>
       </c>
       <c r="Q55" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -14896,7 +14899,7 @@
         <v>128</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -14992,7 +14995,7 @@
         <v>2000</v>
       </c>
       <c r="BB55">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC55">
         <v>1000</v>
@@ -15079,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="CQ55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:95">
@@ -15096,28 +15099,28 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56">
         <v>1.44115214088775e+17</v>
       </c>
       <c r="G56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M56" t="s">
         <v>285</v>
@@ -15330,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="CQ56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:95">
@@ -15347,31 +15350,31 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57">
         <v>1.441152141258065e+17</v>
       </c>
       <c r="G57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K57" t="s">
         <v>285</v>
       </c>
       <c r="L57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N57">
         <v>96</v>
@@ -15383,10 +15386,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R57">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -15491,7 +15494,7 @@
         <v>66</v>
       </c>
       <c r="BA57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB57">
         <v>1000</v>
@@ -15581,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="CQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:95">
@@ -15598,22 +15601,22 @@
         <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58">
         <v>1.441152141334839e+17</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K58" t="s">
         <v>286</v>
@@ -15625,10 +15628,10 @@
         <v>286</v>
       </c>
       <c r="N58">
-        <v>387</v>
+        <v>517</v>
       </c>
       <c r="O58">
-        <v>387</v>
+        <v>517</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -15649,7 +15652,7 @@
         <v>130</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -15745,7 +15748,7 @@
         <v>75</v>
       </c>
       <c r="BB58">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BC58">
         <v>1000</v>
@@ -15849,28 +15852,28 @@
         <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F59">
         <v>1.441152142642342e+17</v>
       </c>
       <c r="G59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K59" t="s">
         <v>285</v>
       </c>
       <c r="L59" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s">
         <v>285</v>
@@ -15885,7 +15888,7 @@
         <v>2</v>
       </c>
       <c r="Q59" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R59">
         <v>50</v>
@@ -16083,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="CQ59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:95">
@@ -16100,25 +16103,25 @@
         <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F60">
         <v>1.441152143046018e+17</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K60" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L60" t="s">
         <v>287</v>
@@ -16127,16 +16130,16 @@
         <v>287</v>
       </c>
       <c r="N60">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="O60">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="P60">
         <v>4</v>
       </c>
       <c r="Q60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R60">
         <v>67</v>
@@ -16151,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -16247,7 +16250,7 @@
         <v>1000</v>
       </c>
       <c r="BB60">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC60">
         <v>1000</v>
@@ -16334,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="CQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:95">
@@ -16351,22 +16354,22 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F61">
         <v>1.441152143194915e+17</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K61" t="s">
         <v>286</v>
@@ -16378,19 +16381,19 @@
         <v>286</v>
       </c>
       <c r="N61">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="O61">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R61">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S61">
         <v>110</v>
@@ -16402,7 +16405,7 @@
         <v>122</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -16498,7 +16501,7 @@
         <v>75</v>
       </c>
       <c r="BB61">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC61">
         <v>1000</v>
@@ -16585,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="CQ61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:95">
@@ -16602,22 +16605,22 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62">
         <v>1.441152143389466e+17</v>
       </c>
       <c r="G62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K62" t="s">
         <v>286</v>
@@ -16629,16 +16632,16 @@
         <v>286</v>
       </c>
       <c r="N62">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="O62">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R62">
         <v>83</v>
@@ -16653,7 +16656,7 @@
         <v>108</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -16692,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62">
         <v>0</v>
@@ -16749,7 +16752,7 @@
         <v>2000</v>
       </c>
       <c r="BB62">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC62">
         <v>1000</v>
@@ -16836,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="CQ62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:95">
@@ -16853,31 +16856,37 @@
         <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63">
         <v>1.441152145326577e+17</v>
       </c>
+      <c r="G63" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" t="s">
+        <v>159</v>
+      </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63" t="s">
+        <v>288</v>
+      </c>
+      <c r="L63" t="s">
         <v>283</v>
       </c>
-      <c r="K63" t="s">
-        <v>285</v>
-      </c>
-      <c r="L63" t="s">
-        <v>284</v>
-      </c>
       <c r="M63" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -16898,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -16994,7 +17003,7 @@
         <v>2000</v>
       </c>
       <c r="BB63">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="BC63">
         <v>1000</v>
@@ -17081,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="CQ63">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
